--- a/test_data/test_baidu.xlsx
+++ b/test_data/test_baidu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22131\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22131\Desktop\autoUI_test_v1.0\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC2B393-90D6-4E00-89AC-8A671B9ADE59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D8A427-F76D-49E1-940C-40CBD17106DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="3045" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,10 +185,6 @@
   </si>
   <si>
     <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜羊羊_百度搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +577,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -704,7 +700,7 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/test_baidu.xlsx
+++ b/test_data/test_baidu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22131\Desktop\autoUI_test_v1.0\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D8A427-F76D-49E1-940C-40CBD17106DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED43726-CCFB-4B7A-82BD-D5186BA14672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="3045" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,10 @@
   </si>
   <si>
     <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜羊羊_百度搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +581,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -700,7 +704,7 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/test_baidu.xlsx
+++ b/test_data/test_baidu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22131\Desktop\autoUI_test_v1.0\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED43726-CCFB-4B7A-82BD-D5186BA14672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EA2080-FE4D-4B40-B0CF-820A11DA687B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="3045" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="3045" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -570,6 +570,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -578,10 +629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1168CEA-9746-45E2-8FC4-956ECCA14EB4}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -707,12 +758,274 @@
         <v>39</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{A68C496E-C8A3-4373-B363-662E216A5BA1}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{452138DE-239B-42B0-A86B-1525668856FE}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{1593EB5C-4DFF-48D7-A9D5-1E11CDFD3F7C}"/>
+    <hyperlink ref="H14" r:id="rId4" xr:uid="{75A117AC-FC17-405E-8DFE-548485CF738A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/test_data/test_baidu.xlsx
+++ b/test_data/test_baidu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22131\Desktop\autoUI_test_v1.0\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63EA2080-FE4D-4B40-B0CF-820A11DA687B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC300781-DFB3-406A-94A5-57E6B2AD013C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="3045" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="2325" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,18 +48,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>步骤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用例号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,6 +181,79 @@
   </si>
   <si>
     <t>喜羊羊_百度搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds_2</t>
+  </si>
+  <si>
+    <t>ds_3</t>
+  </si>
+  <si>
+    <t>ds_4</t>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜羊羊_百度搜索1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜羊羊_百度搜索2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜羊羊_百度搜索3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜羊羊_百度搜索4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,20 +590,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="7.25" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -550,80 +619,144 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2">
+        <v>1111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3">
+        <v>2222</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4">
+        <v>3333</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <v>4444</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -632,7 +765,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,25 +784,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -680,13 +813,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -697,22 +830,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -723,19 +856,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -746,16 +879,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
         <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -766,13 +899,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -783,22 +916,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -809,19 +942,19 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -832,16 +965,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
         <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -852,13 +985,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -869,22 +1002,22 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -895,19 +1028,19 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -918,16 +1051,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
         <v>37</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -938,13 +1071,13 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -955,22 +1088,22 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -981,19 +1114,19 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>30</v>
       </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1004,16 +1137,16 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
         <v>37</v>
-      </c>
-      <c r="H17" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1048,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1082,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1115,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/test_baidu.xlsx
+++ b/test_data/test_baidu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22131\Desktop\autoUI_test_v1.0\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC300781-DFB3-406A-94A5-57E6B2AD013C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B1D534-06E3-4EFD-A000-D3E9303876C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="2325" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/test_data/test_baidu.xlsx
+++ b/test_data/test_baidu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22131\Desktop\autoUI_test_v1.0\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B1D534-06E3-4EFD-A000-D3E9303876C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24A1764-B4CD-475D-8095-AC121144DA92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="2325" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,22 @@
   </si>
   <si>
     <t>喜羊羊_百度搜索4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,11 +609,12 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="24.25" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
@@ -645,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -674,7 +691,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -700,10 +717,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
@@ -729,10 +746,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -765,7 +782,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1146,7 +1163,7 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
